--- a/Geant_simulation/temp.xlsx
+++ b/Geant_simulation/temp.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>x pix</t>
   </si>
@@ -34,6 +34,24 @@
   </si>
   <si>
     <t>y res</t>
+  </si>
+  <si>
+    <t>N_emit</t>
+  </si>
+  <si>
+    <t>N_reg_tot</t>
+  </si>
+  <si>
+    <t>x_avr</t>
+  </si>
+  <si>
+    <t>y_avr</t>
+  </si>
+  <si>
+    <t>x_recon</t>
+  </si>
+  <si>
+    <t>y_recon</t>
   </si>
 </sst>
 </file>
@@ -82,6 +100,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -265,11 +286,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="93431296"/>
-        <c:axId val="93429760"/>
+        <c:axId val="371937752"/>
+        <c:axId val="371938144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="93431296"/>
+        <c:axId val="371937752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -279,12 +300,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93429760"/>
+        <c:crossAx val="371938144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93429760"/>
+        <c:axId val="371938144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -295,14 +316,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93431296"/>
+        <c:crossAx val="371937752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -489,11 +509,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="109704704"/>
-        <c:axId val="109703168"/>
+        <c:axId val="371938928"/>
+        <c:axId val="371939320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="109704704"/>
+        <c:axId val="371938928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -503,12 +523,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109703168"/>
+        <c:crossAx val="371939320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="109703168"/>
+        <c:axId val="371939320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -519,14 +539,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109704704"/>
+        <c:crossAx val="371938928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -651,11 +670,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="115878528"/>
-        <c:axId val="115876992"/>
+        <c:axId val="371940104"/>
+        <c:axId val="373524408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="115878528"/>
+        <c:axId val="371940104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -665,12 +684,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115876992"/>
+        <c:crossAx val="373524408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="115876992"/>
+        <c:axId val="373524408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -681,14 +700,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115878528"/>
+        <c:crossAx val="371940104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -813,11 +831,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="95402624"/>
-        <c:axId val="95400704"/>
+        <c:axId val="373526760"/>
+        <c:axId val="373527152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95402624"/>
+        <c:axId val="373526760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -827,12 +845,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95400704"/>
+        <c:crossAx val="373527152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95400704"/>
+        <c:axId val="373527152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -843,14 +861,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95402624"/>
+        <c:crossAx val="373526760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1033,7 +1050,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1068,7 +1085,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2502,7 +2519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
@@ -3019,12 +3036,1766 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M121"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>-50</v>
+      </c>
+      <c r="C1">
+        <v>-50</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>-40</v>
+      </c>
+      <c r="C2">
+        <v>-50</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1600</v>
+      </c>
+      <c r="I2">
+        <v>19</v>
+      </c>
+      <c r="J2">
+        <v>0.45</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>-28.8276</v>
+      </c>
+      <c r="M2">
+        <v>-5.2413800000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>-30</v>
+      </c>
+      <c r="C3">
+        <v>-50</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>20.7273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-20</v>
+      </c>
+      <c r="C4">
+        <v>-50</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>-3.3043499999999999</v>
+      </c>
+      <c r="M4">
+        <v>6.6086999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-10</v>
+      </c>
+      <c r="C5">
+        <v>-50</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>10.1333</v>
+      </c>
+      <c r="M5">
+        <v>-5.0666700000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>-50</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>-50</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>-50</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>-50</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>40</v>
+      </c>
+      <c r="C10">
+        <v>-50</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>-50</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>-50</v>
+      </c>
+      <c r="C12">
+        <v>-40</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>-40</v>
+      </c>
+      <c r="C13">
+        <v>-40</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>-30</v>
+      </c>
+      <c r="C14">
+        <v>-40</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>-20</v>
+      </c>
+      <c r="C15">
+        <v>-40</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>-10</v>
+      </c>
+      <c r="C16">
+        <v>-40</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>-40</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>-40</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>-40</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>-40</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>40</v>
+      </c>
+      <c r="C21">
+        <v>-40</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>50</v>
+      </c>
+      <c r="C22">
+        <v>-40</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>-50</v>
+      </c>
+      <c r="C23">
+        <v>-30</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>-40</v>
+      </c>
+      <c r="C24">
+        <v>-30</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>-30</v>
+      </c>
+      <c r="C25">
+        <v>-30</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>-20</v>
+      </c>
+      <c r="C26">
+        <v>-30</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>-10</v>
+      </c>
+      <c r="C27">
+        <v>-30</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>-30</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>-30</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>-30</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>-30</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>-30</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>50</v>
+      </c>
+      <c r="C33">
+        <v>-30</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>-50</v>
+      </c>
+      <c r="C34">
+        <v>-20</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>-40</v>
+      </c>
+      <c r="C35">
+        <v>-20</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>-30</v>
+      </c>
+      <c r="C36">
+        <v>-20</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>-20</v>
+      </c>
+      <c r="C37">
+        <v>-20</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>-10</v>
+      </c>
+      <c r="C38">
+        <v>-20</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>-20</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>-20</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>-20</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>30</v>
+      </c>
+      <c r="C42">
+        <v>-20</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>40</v>
+      </c>
+      <c r="C43">
+        <v>-20</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>50</v>
+      </c>
+      <c r="C44">
+        <v>-20</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>-50</v>
+      </c>
+      <c r="C45">
+        <v>-10</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>-40</v>
+      </c>
+      <c r="C46">
+        <v>-10</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>-30</v>
+      </c>
+      <c r="C47">
+        <v>-10</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>-20</v>
+      </c>
+      <c r="C48">
+        <v>-10</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>-10</v>
+      </c>
+      <c r="C49">
+        <v>-10</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>-10</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>-10</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>20</v>
+      </c>
+      <c r="C52">
+        <v>-10</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>30</v>
+      </c>
+      <c r="C53">
+        <v>-10</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>40</v>
+      </c>
+      <c r="C54">
+        <v>-10</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>50</v>
+      </c>
+      <c r="C55">
+        <v>-10</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>-50</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>-40</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>-30</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>-20</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>-10</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>20</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>30</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>40</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>50</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>-50</v>
+      </c>
+      <c r="C67">
+        <v>10</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>-40</v>
+      </c>
+      <c r="C68">
+        <v>10</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>-30</v>
+      </c>
+      <c r="C69">
+        <v>10</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>-20</v>
+      </c>
+      <c r="C70">
+        <v>10</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>-10</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>10</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>10</v>
+      </c>
+      <c r="C73">
+        <v>10</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>20</v>
+      </c>
+      <c r="C74">
+        <v>10</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>30</v>
+      </c>
+      <c r="C75">
+        <v>10</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>40</v>
+      </c>
+      <c r="C76">
+        <v>10</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>50</v>
+      </c>
+      <c r="C77">
+        <v>10</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>-50</v>
+      </c>
+      <c r="C78">
+        <v>20</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>-40</v>
+      </c>
+      <c r="C79">
+        <v>20</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>-30</v>
+      </c>
+      <c r="C80">
+        <v>20</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>-20</v>
+      </c>
+      <c r="C81">
+        <v>20</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>-10</v>
+      </c>
+      <c r="C82">
+        <v>20</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>20</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <v>20</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>20</v>
+      </c>
+      <c r="C85">
+        <v>20</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>30</v>
+      </c>
+      <c r="C86">
+        <v>20</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>40</v>
+      </c>
+      <c r="C87">
+        <v>20</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>50</v>
+      </c>
+      <c r="C88">
+        <v>20</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>-50</v>
+      </c>
+      <c r="C89">
+        <v>30</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>-40</v>
+      </c>
+      <c r="C90">
+        <v>30</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>-30</v>
+      </c>
+      <c r="C91">
+        <v>30</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>-20</v>
+      </c>
+      <c r="C92">
+        <v>30</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>-10</v>
+      </c>
+      <c r="C93">
+        <v>30</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>30</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+      <c r="C95">
+        <v>30</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>20</v>
+      </c>
+      <c r="C96">
+        <v>30</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>30</v>
+      </c>
+      <c r="C97">
+        <v>30</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>40</v>
+      </c>
+      <c r="C98">
+        <v>30</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>50</v>
+      </c>
+      <c r="C99">
+        <v>30</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>-50</v>
+      </c>
+      <c r="C100">
+        <v>40</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>-40</v>
+      </c>
+      <c r="C101">
+        <v>40</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>-30</v>
+      </c>
+      <c r="C102">
+        <v>40</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>-20</v>
+      </c>
+      <c r="C103">
+        <v>40</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>-10</v>
+      </c>
+      <c r="C104">
+        <v>40</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>40</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>10</v>
+      </c>
+      <c r="C106">
+        <v>40</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>20</v>
+      </c>
+      <c r="C107">
+        <v>40</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>30</v>
+      </c>
+      <c r="C108">
+        <v>40</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>40</v>
+      </c>
+      <c r="C109">
+        <v>40</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>50</v>
+      </c>
+      <c r="C110">
+        <v>40</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>-50</v>
+      </c>
+      <c r="C111">
+        <v>50</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>-40</v>
+      </c>
+      <c r="C112">
+        <v>50</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>-30</v>
+      </c>
+      <c r="C113">
+        <v>50</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>-20</v>
+      </c>
+      <c r="C114">
+        <v>50</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>-10</v>
+      </c>
+      <c r="C115">
+        <v>50</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>50</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>10</v>
+      </c>
+      <c r="C117">
+        <v>50</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>20</v>
+      </c>
+      <c r="C118">
+        <v>50</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>30</v>
+      </c>
+      <c r="C119">
+        <v>50</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>40</v>
+      </c>
+      <c r="C120">
+        <v>50</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>50</v>
+      </c>
+      <c r="C121">
+        <v>50</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Geant_simulation/temp.xlsx
+++ b/Geant_simulation/temp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -286,11 +286,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="371937752"/>
-        <c:axId val="371938144"/>
+        <c:axId val="479850560"/>
+        <c:axId val="479850952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="371937752"/>
+        <c:axId val="479850560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -300,12 +300,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="371938144"/>
+        <c:crossAx val="479850952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="371938144"/>
+        <c:axId val="479850952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -316,7 +316,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="371937752"/>
+        <c:crossAx val="479850560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -509,11 +509,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="371938928"/>
-        <c:axId val="371939320"/>
+        <c:axId val="479851736"/>
+        <c:axId val="479852128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="371938928"/>
+        <c:axId val="479851736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -523,12 +523,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="371939320"/>
+        <c:crossAx val="479852128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="371939320"/>
+        <c:axId val="479852128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -539,7 +539,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="371938928"/>
+        <c:crossAx val="479851736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -670,11 +670,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="371940104"/>
-        <c:axId val="373524408"/>
+        <c:axId val="479852912"/>
+        <c:axId val="479853304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="371940104"/>
+        <c:axId val="479852912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -684,12 +684,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="373524408"/>
+        <c:crossAx val="479853304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="373524408"/>
+        <c:axId val="479853304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -700,7 +700,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="371940104"/>
+        <c:crossAx val="479852912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -831,11 +831,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="373526760"/>
-        <c:axId val="373527152"/>
+        <c:axId val="479855656"/>
+        <c:axId val="479856048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="373526760"/>
+        <c:axId val="479855656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -845,12 +845,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="373527152"/>
+        <c:crossAx val="479856048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="373527152"/>
+        <c:axId val="479856048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -861,7 +861,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="373526760"/>
+        <c:crossAx val="479855656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1294,1219 +1294,5917 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B151"/>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E551">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E559">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E566">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E570">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E571">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E572">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E574">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E576">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E577">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E579">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E580">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E581">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E582">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E583">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E584">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E585">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E586">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E587">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E588">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E589">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E590">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E591">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E592">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E593">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E594">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E596">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E597">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E598">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E599">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E600">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E601">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E602">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E603">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E604">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E605">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E606">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E607">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E608">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E609">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E610">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E611">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E612">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E613">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E614">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E615">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E616">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E617">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E618">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E619">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E620">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E621">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E622">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E623">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E624">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E625">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E626">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E627">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E628">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E629">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E630">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E631">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E632">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E633">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E634">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E635">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E636">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E637">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E638">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E639">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E640">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E641">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E642">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E643">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E644">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E645">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E646">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E647">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E648">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E649">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E650">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E651">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E652">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E653">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E654">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E655">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E656">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E657">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E658">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E659">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E660">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E661">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E662">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E663">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E664">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E665">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E666">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E667">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E668">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E669">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E670">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E671">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E672">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E673">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E674">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E675">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E676">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E677">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E678">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E679">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E680">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E681">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E682">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E683">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E684">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E685">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E686">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E687">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E688">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E689">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E690">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E691">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E692">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E693">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E694">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E695">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E696">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E697">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E698">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E699">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E700">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E701">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E702">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E703">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E704">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E705">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E706">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E707">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="708" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E708">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E709">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E710">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E711">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E712">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E713">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E714">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E715">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E716">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E717">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E718">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E719">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E720">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E721">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E722">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E723">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E724">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E725">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E726">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E727">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="728" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E728">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E729">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E730">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E731">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E732">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E733">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E734">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E735">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E736">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E737">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E738">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E739">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E740">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E741">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E742">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E743">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E744">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E745">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E746">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E747">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E748">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E749">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E750">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E751">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E752">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E753">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E754">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E755">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E756">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E757">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E758">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E759">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="760" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E760">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E761">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E762">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E763">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E764">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E765">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E766">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E767">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E768">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E769">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E770">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E771">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="772" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E772">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E773">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="774" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E774">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E775">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E776">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E777">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E778">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E779">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E780">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E781">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E782">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E783">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E784">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E785">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E786">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E787">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E788">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E789">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E790">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E791">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="792" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E792">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E793">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="794" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E794">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E795">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="796" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E796">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E797">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E798">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E799">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="800" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E800">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E801">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="802" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E802">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="803" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E803">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="804" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E804">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="805" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E805">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="806" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E806">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="807" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E807">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="808" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E808">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E809">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="810" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E810">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="811" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E811">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="812" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E812">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="813" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E813">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E814">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="815" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E815">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="816" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E816">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="817" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E817">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="818" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E818">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="819" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E819">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="820" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E820">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E821">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="822" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E822">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E823">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="824" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E824">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="825" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E825">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="826" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E826">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E827">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="828" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E828">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="829" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E829">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="830" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E830">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E831">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="832" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E832">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="833" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E833">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="834" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E834">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="835" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E835">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="836" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E836">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E837">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="838" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E838">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="839" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E839">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="840" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E840">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="841" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E841">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="842" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E842">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E843">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E844">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="845" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E845">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="846" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E846">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E847">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="848" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E848">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="849" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E849">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="850" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E850">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="851" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E851">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="852" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E852">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="853" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E853">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="854" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E854">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="855" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E855">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="856" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E856">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="857" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E857">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="858" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E858">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="859" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E859">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="860" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E860">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E861">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="862" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E862">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E863">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E864">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="865" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E865">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="866" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E866">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E867">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="868" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E868">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="869" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E869">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="870" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E870">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="871" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E871">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E872">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="873" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E873">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="874" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E874">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="875" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E875">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="876" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E876">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="877" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E877">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="878" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E878">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E879">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="880" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E880">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="881" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E881">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="882" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E882">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="883" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E883">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="884" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E884">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="885" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E885">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="886" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E886">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="887" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E887">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="888" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E888">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="889" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E889">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="890" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E890">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="891" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E891">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E892">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E893">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="894" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E894">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="895" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E895">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="896" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E896">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="897" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E897">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="898" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E898">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="899" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E899">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="900" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E900">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="901" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E901">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="902" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E902">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="903" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E903">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="904" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E904">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="905" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E905">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="906" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E906">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="907" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E907">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="908" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E908">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="909" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E909">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="910" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E910">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="911" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E911">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="912" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E912">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="913" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E913">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="914" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E914">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="915" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E915">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="916" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E916">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="917" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E917">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="918" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E918">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="919" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E919">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="920" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E920">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="921" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E921">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="922" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E922">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="923" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E923">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="924" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E924">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="925" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E925">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="926" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E926">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="927" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E927">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="928" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E928">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="929" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E929">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="930" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E930">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="931" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E931">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="932" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E932">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="933" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E933">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="934" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E934">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="935" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E935">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="936" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E936">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="937" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E937">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="938" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E938">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="939" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E939">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="940" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E940">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="941" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E941">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="942" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E942">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="943" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E943">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="944" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E944">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="945" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E945">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="946" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E946">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="947" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E947">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="948" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E948">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="949" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E949">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="950" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E950">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="951" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E951">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="952" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E952">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="953" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E953">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="954" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E954">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="955" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E955">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="956" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E956">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="957" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E957">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="958" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E958">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="959" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E959">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="960" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E960">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="961" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E961">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="962" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E962">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="963" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E963">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="964" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E964">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="965" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E965">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="966" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E966">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="967" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E967">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="968" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E968">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="969" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E969">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="970" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E970">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="971" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E971">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="972" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E972">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="973" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E973">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="974" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E974">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="975" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E975">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="976" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E976">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="977" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E977">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="978" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E978">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="979" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E979">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="980" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E980">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="981" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E981">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="982" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E982">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="983" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E983">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="984" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E984">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="985" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E985">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="986" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E986">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="987" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E987">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="988" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E988">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="989" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E989">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="990" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E990">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="991" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E991">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="992" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E992">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="993" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E993">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="994" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E994">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="995" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E995">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="996" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E996">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="997" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E997">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="998" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E998">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="999" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E999">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1000" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E1000">
         <v>0</v>
       </c>
     </row>
@@ -2523,9 +7221,9 @@
       <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2551,7 +7249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>188</v>
       </c>
@@ -2586,7 +7284,7 @@
         <v>0.30449871034826947</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>235</v>
       </c>
@@ -2621,7 +7319,7 @@
         <v>0.25388130428474953</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>269</v>
       </c>
@@ -2656,7 +7354,7 @@
         <v>0.11902896321176132</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>294</v>
       </c>
@@ -2691,7 +7389,7 @@
         <v>9.3407052582389072E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>315</v>
       </c>
@@ -2726,7 +7424,7 @@
         <v>5.0444153437659719E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>333</v>
       </c>
@@ -2761,7 +7459,7 @@
         <v>4.0803458779792433E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>349</v>
       </c>
@@ -2796,7 +7494,7 @@
         <v>3.6883594247051114E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>362</v>
       </c>
@@ -2831,7 +7529,7 @@
         <v>3.3005257000730072E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>374</v>
       </c>
@@ -2866,7 +7564,7 @@
         <v>2.7798077172051773E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>454</v>
       </c>
@@ -2880,7 +7578,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>501</v>
       </c>
@@ -2894,7 +7592,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>534</v>
       </c>
@@ -2908,7 +7606,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>559</v>
       </c>
@@ -2922,7 +7620,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>581</v>
       </c>
@@ -2936,7 +7634,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>599</v>
       </c>
@@ -2950,7 +7648,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>614</v>
       </c>
@@ -2964,7 +7662,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>628</v>
       </c>
@@ -2978,7 +7676,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>640</v>
       </c>
@@ -2987,19 +7685,19 @@
       </c>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K23" s="1"/>
     </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>2</v>
       </c>
@@ -3013,7 +7711,7 @@
         <v>0.3725</v>
       </c>
     </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -3038,16 +7736,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
@@ -3079,7 +7777,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3111,7 +7809,7 @@
         <v>-5.2413800000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3131,7 +7829,7 @@
         <v>20.7273</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3151,7 +7849,7 @@
         <v>6.6086999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3171,7 +7869,7 @@
         <v>-5.0666700000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3185,7 +7883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3199,7 +7897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3213,7 +7911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3227,7 +7925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3241,7 +7939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3255,7 +7953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3269,7 +7967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3283,7 +7981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3297,7 +7995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3311,7 +8009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3325,7 +8023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3339,7 +8037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3353,7 +8051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3367,7 +8065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3381,7 +8079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3395,7 +8093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3409,7 +8107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3423,7 +8121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3437,7 +8135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3451,7 +8149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3465,7 +8163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3479,7 +8177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3493,7 +8191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3507,7 +8205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3521,7 +8219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3535,7 +8233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3549,7 +8247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3563,7 +8261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3577,7 +8275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3591,7 +8289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3605,7 +8303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3619,7 +8317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3633,7 +8331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3647,7 +8345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3661,7 +8359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3675,7 +8373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3689,7 +8387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3703,7 +8401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3717,7 +8415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3731,7 +8429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3745,7 +8443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3759,7 +8457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3773,7 +8471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3787,7 +8485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3801,7 +8499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3815,7 +8513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3829,7 +8527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3843,7 +8541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3857,7 +8555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3871,7 +8569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3885,7 +8583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3899,7 +8597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3913,7 +8611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3927,7 +8625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3941,7 +8639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3955,7 +8653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3969,7 +8667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3983,7 +8681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3997,7 +8695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4011,7 +8709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4025,7 +8723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4039,7 +8737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4053,7 +8751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4067,7 +8765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4081,7 +8779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4095,7 +8793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4109,7 +8807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4123,7 +8821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4137,7 +8835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4151,7 +8849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4165,7 +8863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4179,7 +8877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4193,7 +8891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4207,7 +8905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4221,7 +8919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4235,7 +8933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4249,7 +8947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4263,7 +8961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4277,7 +8975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4291,7 +8989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4305,7 +9003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4319,7 +9017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4333,7 +9031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4347,7 +9045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4361,7 +9059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4375,7 +9073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4389,7 +9087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4403,7 +9101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4417,7 +9115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4431,7 +9129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4445,7 +9143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4459,7 +9157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4473,7 +9171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4487,7 +9185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4501,7 +9199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4515,7 +9213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4529,7 +9227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4543,7 +9241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4557,7 +9255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4571,7 +9269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4585,7 +9283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4599,7 +9297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4613,7 +9311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4627,7 +9325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4641,7 +9339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4655,7 +9353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4669,7 +9367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4683,7 +9381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4697,7 +9395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4711,7 +9409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4725,7 +9423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4739,7 +9437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4753,7 +9451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4767,7 +9465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4781,7 +9479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
